--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances.xlsx
@@ -25,7 +25,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[(1, 1), (2, 1), (6, 1), (8, 1), (11, 1), (12, 1), (13, 1)]</t>
+    <t>[(2, 1), (8, 1), (10, 0), (12, 1)]</t>
   </si>
 </sst>
 </file>
